--- a/src/test/java/TestData/AdvancedTestsData/TableDataSearchData.xlsx
+++ b/src/test/java/TestData/AdvancedTestsData/TableDataSearchData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateusz\SeleniumEasyFramework_Project\src\test\java\TestData\AdvancedTestsData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C6D3F1F-5B34-4A4A-8921-44E9E08F3125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652D322F-8911-4ED3-9F11-947FF28A3278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21645" windowHeight="11385" xr2:uid="{EE7BFEA0-6D4D-4A58-9C1E-8A4F3634F9A9}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21645" windowHeight="11385" activeTab="1" xr2:uid="{EE7BFEA0-6D4D-4A58-9C1E-8A4F3634F9A9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="tableDataTasksEnterValueData" sheetId="1" r:id="rId1"/>
+    <sheet name="tableDataUsersEnterValueData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,12 +36,93 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+  <si>
+    <t>value1</t>
+  </si>
+  <si>
+    <t>value2</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>value3</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Browser Issues</t>
+  </si>
+  <si>
+    <t>failed qa</t>
+  </si>
+  <si>
+    <t>No results found</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Emily John</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Kathaniko</t>
+  </si>
+  <si>
+    <t>Byron</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Zieko</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Brigade</t>
+  </si>
+  <si>
+    <t>larrypt</t>
+  </si>
+  <si>
+    <t>Faile</t>
+  </si>
+  <si>
+    <t>Failed for Raport Purpoose</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -383,12 +465,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD17F0A1-8F96-488C-9D25-87CE1D29A2E7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C799049D-8260-49DA-8AF5-850CA6D3C741}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>